--- a/docs/data-cleaning-requests/university-police-actions/university_police_actions_novirtual_Canada.xlsx
+++ b/docs/data-cleaning-requests/university-police-actions/university_police_actions_novirtual_Canada.xlsx
@@ -377,7 +377,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3">
@@ -387,7 +387,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4">
@@ -407,7 +407,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6">
@@ -417,7 +417,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7">
@@ -427,7 +427,7 @@
         </is>
       </c>
       <c r="B7">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B10">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11">
@@ -467,17 +467,17 @@
         </is>
       </c>
       <c r="B11">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Number of events with both any university response coding and any police coding</t>
+          <t>Number of events with either any university response coding or any police coding</t>
         </is>
       </c>
       <c r="B12">
-        <v>436</v>
+        <v>431</v>
       </c>
     </row>
     <row r="13">
@@ -487,17 +487,17 @@
         </is>
       </c>
       <c r="B13">
-        <v>5015</v>
+        <v>529</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Total number of protests in Canada</t>
+          <t>Total number of protests in canada</t>
         </is>
       </c>
       <c r="B14">
-        <v>436</v>
+        <v>960</v>
       </c>
     </row>
   </sheetData>
@@ -856,10 +856,10 @@
         </is>
       </c>
       <c r="D15">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E15">
-        <v>0.01632727939827554</v>
+        <v>0.0157769216657494</v>
       </c>
     </row>
     <row r="16">
@@ -994,10 +994,10 @@
         </is>
       </c>
       <c r="D21">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E21">
-        <v>0.003118693817648138</v>
+        <v>0.002935241240139424</v>
       </c>
     </row>
     <row r="22">
@@ -1109,10 +1109,10 @@
         </is>
       </c>
       <c r="D26">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E26">
-        <v>0.01889561548339754</v>
+        <v>0.01871216290588883</v>
       </c>
     </row>
     <row r="27">
@@ -1178,10 +1178,10 @@
         </is>
       </c>
       <c r="D29">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E29">
-        <v>0.01265822784810127</v>
+        <v>0.01229132269308384</v>
       </c>
     </row>
     <row r="30">
@@ -1224,10 +1224,10 @@
         </is>
       </c>
       <c r="D31">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E31">
-        <v>0.01082370207301413</v>
+        <v>0.01064024949550541</v>
       </c>
     </row>
     <row r="32">
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="D45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E45">
-        <v>0.000550357732526142</v>
+        <v>0.000366905155017428</v>
       </c>
     </row>
     <row r="46">
@@ -1569,10 +1569,10 @@
         </is>
       </c>
       <c r="D46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E46">
-        <v>0.000550357732526142</v>
+        <v>0.000366905155017428</v>
       </c>
     </row>
     <row r="47">
@@ -2199,11 +2199,11 @@
     <row r="74">
       <c r="C74" t="inlineStr">
         <is>
-          <t>Total number of protests in Canada</t>
+          <t>Total number of protests in canada</t>
         </is>
       </c>
       <c r="D74">
-        <v>436</v>
+        <v>960</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data-cleaning-requests/university-police-actions/university_police_actions_novirtual_Canada.xlsx
+++ b/docs/data-cleaning-requests/university-police-actions/university_police_actions_novirtual_Canada.xlsx
@@ -352,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -483,20 +483,30 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Number of events with neither university response nor police coding</t>
+          <t>Number of events with both any university response coding and any police coding</t>
         </is>
       </c>
       <c r="B13">
-        <v>529</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>Number of events with neither university response nor police coding</t>
+        </is>
+      </c>
+      <c r="B14">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
           <t>Total number of protests in canada</t>
         </is>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>960</v>
       </c>
     </row>
